--- a/Definitions/l_Definitions_ide.xlsx
+++ b/Definitions/l_Definitions_ide.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Topics</t>
   </si>
@@ -56,6 +56,27 @@
   </si>
   <si>
     <t>Ctrl + Shift + N</t>
+  </si>
+  <si>
+    <t>remove line</t>
+  </si>
+  <si>
+    <t>Ctrl + Y</t>
+  </si>
+  <si>
+    <t>To duplicate a line or fragment
+Place the caret at the line to be duplicated, or select the desired fragment of text.</t>
+  </si>
+  <si>
+    <t>Ctrl + D</t>
+  </si>
+  <si>
+    <t>To move a line
+1. Place the caret at the line to be moved</t>
+  </si>
+  <si>
+    <t>Shift+Alt+Up
+Shift+Alt+Down</t>
   </si>
 </sst>
 </file>
@@ -153,7 +174,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -164,6 +185,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -584,11 +608,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -628,6 +652,30 @@
         <v>12</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="45">
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A14:B14"/>

--- a/Definitions/l_Definitions_ide.xlsx
+++ b/Definitions/l_Definitions_ide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Topics</t>
   </si>
@@ -77,13 +77,69 @@
   <si>
     <t>Shift+Alt+Up
 Shift+Alt+Down</t>
+  </si>
+  <si>
+    <t>how to change web content name in eclipse</t>
+  </si>
+  <si>
+    <t>.settings/org.eclipse.wst.common.component, and change following line:
+&lt;wb-resource deploy-path="/" source-path="/WebContent"/&gt;</t>
+  </si>
+  <si>
+    <t>SVN plugin for Eclipse</t>
+  </si>
+  <si>
+    <t>Subclipse</t>
+  </si>
+  <si>
+    <t>How to install subclipse plugin in eclipse</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Help -&gt; Install New Software -&gt; Add (give any name, url: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://subclipse.tigris.org/update_1.12.x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>For detailed explanation refer: images/s_eclipse/1_How_to_enable_Subversion.docx</t>
+  </si>
+  <si>
+    <t>Steps for installing javadoc plugin in eclipse</t>
+  </si>
+  <si>
+    <t>Go to Help &gt; Eclipse Marketplace....
+Find "JAutodoc".
+Install it and restart Eclipse.
+To use this tool, right-click on class and click on Jautodoc</t>
+  </si>
+  <si>
+    <t>Definitions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,20 +157,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <u/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,18 +187,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF0066FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -166,6 +236,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -174,20 +268,32 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -488,13 +594,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -540,36 +646,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.375" customWidth="1"/>
-    <col min="2" max="2" width="106.625" customWidth="1"/>
+    <col min="1" max="1" width="55.42578125" customWidth="1"/>
+    <col min="2" max="2" width="106.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="B2" s="9"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -596,89 +703,156 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="64.7109375" customWidth="1"/>
+    <col min="2" max="2" width="121.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:2" ht="30">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Eclipse!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.125" customWidth="1"/>
-    <col min="2" max="2" width="107.875" customWidth="1"/>
+    <col min="1" max="1" width="56.140625" customWidth="1"/>
+    <col min="2" max="2" width="107.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" s="3" t="s">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="45">
-      <c r="A18" s="5" t="s">
+    <row r="6" spans="1:2" ht="45">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="5" t="s">
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="IntelliJ!A2" display="Up"/>

--- a/Definitions/l_Definitions_ide.xlsx
+++ b/Definitions/l_Definitions_ide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Topics</t>
   </si>
@@ -133,6 +133,30 @@
   </si>
   <si>
     <t>Definitions</t>
+  </si>
+  <si>
+    <t>Using the remote Java application launch configuration</t>
+  </si>
+  <si>
+    <t>http://help.eclipse.org/neon/index.jsp?topic=%2Forg.eclipse.jdt.doc.user%2Ftasks%2Ftask-remotejava_launch_config.htm</t>
+  </si>
+  <si>
+    <t>Remote Debugging</t>
+  </si>
+  <si>
+    <t>http://help.eclipse.org/neon/index.jsp?topic=%2Forg.eclipse.jdt.doc.user%2Fconcepts%2Fcremdbug.htm</t>
+  </si>
+  <si>
+    <t>Update imports short cuts</t>
+  </si>
+  <si>
+    <t>Ctrl+Alt+o</t>
+  </si>
+  <si>
+    <t>Add Jar to classpath</t>
+  </si>
+  <si>
+    <t>Ctrl+Alt+Shift+s -&gt; Project Settings -&gt; Modules -&gt; Dependencies -&gt; + Sign -&gt; Jars or Directories -&gt; Select jar -&gt; click Ok</t>
   </si>
 </sst>
 </file>
@@ -283,17 +307,17 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -594,7 +618,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -646,15 +670,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:B10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55.42578125" customWidth="1"/>
-    <col min="2" max="2" width="106.5703125" customWidth="1"/>
+    <col min="2" max="2" width="114" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -666,17 +690,33 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
@@ -695,9 +735,11 @@
     <hyperlink ref="B11" r:id="rId1"/>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -725,10 +767,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="2" t="s">
@@ -747,7 +789,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -755,7 +797,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
@@ -783,11 +825,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -805,10 +847,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -848,6 +890,22 @@
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/l_Definitions_ide.xlsx
+++ b/Definitions/l_Definitions_ide.xlsx
@@ -829,7 +829,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/l_Definitions_ide.xlsx
+++ b/Definitions/l_Definitions_ide.xlsx
@@ -829,7 +829,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/l_Definitions_ide.xlsx
+++ b/Definitions/l_Definitions_ide.xlsx
@@ -829,7 +829,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/l_Definitions_ide.xlsx
+++ b/Definitions/l_Definitions_ide.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Topics</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>Ctrl+Alt+Shift+s -&gt; Project Settings -&gt; Modules -&gt; Dependencies -&gt; + Sign -&gt; Jars or Directories -&gt; Select jar -&gt; click Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show methods in a call in a popup (like ctrl + o in eclipse) </t>
+  </si>
+  <si>
+    <t>Ctrl + F12</t>
   </si>
 </sst>
 </file>
@@ -825,11 +831,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -908,6 +914,14 @@
         <v>36</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
